--- a/biology/Zoologie/Gaucelmus/Gaucelmus.xlsx
+++ b/biology/Zoologie/Gaucelmus/Gaucelmus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gaucelmus est un genre d'araignées aranéomorphes de la famille des Synotaxidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gaucelmus est un genre d'araignées aranéomorphes de la famille des Synotaxidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces ce genre se rencontrent en Amérique centrale, en Amérique du Nord et aux Antilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces ce genre se rencontrent en Amérique centrale, en Amérique du Nord et aux Antilles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 06/10/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 06/10/2022) :
 Gaucelmus augustinus Keyserling, 1884
 Gaucelmus calidus Gertsch, 1971
 Gaucelmus cavernicola (Petrunkevitch, 1910)
@@ -578,9 +594,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Keyserling en 1884 dans les Theridiidae. Il est placé en synonymie avec Nesticus par Simon en 1895[3]. Il est relevé de synonymie dans les Nesticidae par Gertsch en 1971[4]. Il est placé dans les Synotaxidae par Ramírez, Magalhaes, Pizarro-Araya, Ballarin, Marusik et Eskov en 2022[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Keyserling en 1884 dans les Theridiidae. Il est placé en synonymie avec Nesticus par Simon en 1895. Il est relevé de synonymie dans les Nesticidae par Gertsch en 1971. Il est placé dans les Synotaxidae par Ramírez, Magalhaes, Pizarro-Araya, Ballarin, Marusik et Eskov en 2022.
 </t>
         </is>
       </c>
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Keyserling, 1884 : Die Spinnen Amerikas II. Theridiidae. Nürnberg, vol. 1, p. 1-222  (texte intégral).</t>
         </is>
